--- a/AutomatedTesting/testExcel.xlsx
+++ b/AutomatedTesting/testExcel.xlsx
@@ -14,22 +14,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>대분류</t>
+    <t>��з�</t>
   </si>
   <si>
-    <t>중분류</t>
+    <t>�ߺз�</t>
   </si>
   <si>
-    <t>소분류</t>
+    <t>�Һз�</t>
   </si>
   <si>
-    <t>시나리오 명</t>
+    <t>�ó����� ��</t>
   </si>
   <si>
-    <t>결과</t>
+    <t>���</t>
   </si>
   <si>
-    <t>실패 내역</t>
+    <t>���� ����</t>
   </si>
 </sst>
 </file>
@@ -46,7 +46,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="나눔고딕코딩"/>
+      <name val="��������ڵ�"/>
       <sz val="11.0"/>
       <color indexed="9"/>
     </font>
